--- a/Log2Excel/Config.xlsx
+++ b/Log2Excel/Config.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>NAME</t>
   </si>
@@ -26,13 +26,13 @@
     <t>INPUT_PATH</t>
   </si>
   <si>
-    <t>D:\\Log2Excel\\Input</t>
+    <t>D:\Works\Freelancers\Log2Excel\Log2Excel\Log2Excel\bin\Debug\net6.0-windows\input</t>
   </si>
   <si>
     <t>OUTPUT_PATH</t>
   </si>
   <si>
-    <t>D:\\Log2Excel\\Output</t>
+    <t>D:\Works\Freelancers\Log2Excel\Log2Excel\Log2Excel\bin\Debug\net6.0-windows\output</t>
   </si>
   <si>
     <t>DZS_PREFIX</t>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>R1;R2;R3;R4;R5;R6</t>
+  </si>
+  <si>
+    <t>COMMENT_NAME</t>
+  </si>
+  <si>
+    <t>VERA COMMENT</t>
+  </si>
+  <si>
+    <t>KEY</t>
   </si>
   <si>
     <t>DZS</t>
@@ -118,12 +127,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,7 +164,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -169,52 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -231,11 +249,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,52 +294,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,25 +309,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,157 +471,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +514,36 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,21 +572,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -566,24 +583,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,163 +609,161 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,6 +771,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -784,6 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1104,13 +1110,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="35.6017699115044" customWidth="1"/>
     <col min="2" max="2" width="60.8672566371681" customWidth="1"/>
@@ -1118,52 +1124,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1175,100 +1189,133 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="50.7345132743363" customWidth="1"/>
-    <col min="2" max="2" width="56.3982300884956" customWidth="1"/>
+    <col min="2" max="2" width="50.7345132743363" customWidth="1"/>
+    <col min="3" max="3" width="56.3982300884956" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" ht="15.4" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="15.4" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="2" ht="15.4" spans="1:3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" ht="15.4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="3" ht="15.4" spans="1:3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" ht="15.4" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="4" ht="15.4" spans="1:3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" ht="15.4" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="5" ht="15.4" spans="1:3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" ht="15.4" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="6" ht="15.4" spans="1:3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" ht="15.4" spans="1:2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="15.4" spans="1:2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+    <row r="7" ht="15.4" spans="1:3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" ht="15.4" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="8" ht="15.4" spans="1:3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="15.4" spans="1:2">
-      <c r="A11" s="3" t="s">
+    <row r="9" ht="15.4" spans="1:3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="10" ht="15.4" spans="1:3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="15.4" spans="1:3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Log2Excel/Config.xlsx
+++ b/Log2Excel/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9570"/>
+    <workbookView windowWidth="21600" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EnvironmentVariables" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>show segment-routing ipv6 locators</t>
   </si>
   <si>
-    <t>show segment-routing srv6 locators</t>
+    <t>show segment-routing srv6 locator</t>
   </si>
   <si>
     <t>show segment-routing ipv6 sid</t>
@@ -127,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -156,6 +156,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,6 +179,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -170,48 +202,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +224,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -233,9 +248,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,23 +278,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,28 +295,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +514,32 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,26 +587,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -610,15 +610,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,134 +636,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,7 +789,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1112,7 +1111,7 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1173,10 +1172,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1191,8 +1190,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/Log2Excel/Config.xlsx
+++ b/Log2Excel/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9570" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="EnvironmentVariables" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
     <t>INPUT_PATH</t>
   </si>
   <si>
-    <t>D:\Works\Freelancers\Log2Excel\Log2Excel\Log2Excel\bin\Debug\net6.0-windows\input</t>
+    <t>G:\Projects\Person\Log2Excel\Log2Excel\bin\Debug\net6.0-windows\input</t>
   </si>
   <si>
     <t>OUTPUT_PATH</t>
   </si>
   <si>
-    <t>D:\Works\Freelancers\Log2Excel\Log2Excel\Log2Excel\bin\Debug\net6.0-windows\output</t>
+    <t>G:\Projects\Person\Log2Excel\Log2Excel\bin\Debug\net6.0-windows\output</t>
   </si>
   <si>
     <t>DZS_PREFIX</t>
@@ -127,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -156,11 +156,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,22 +186,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -195,22 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,17 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,23 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,23 +255,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,25 +309,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,157 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,6 +518,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -535,26 +550,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,8 +575,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +585,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -606,160 +615,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,15 +1111,15 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="35.6017699115044" customWidth="1"/>
-    <col min="2" max="2" width="60.8672566371681" customWidth="1"/>
-    <col min="3" max="3" width="42.3362831858407" customWidth="1"/>
+    <col min="1" max="1" width="35.6" customWidth="1"/>
+    <col min="2" max="2" width="60.8666666666667" customWidth="1"/>
+    <col min="3" max="3" width="42.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1190,14 +1190,14 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="50.7345132743363" customWidth="1"/>
-    <col min="3" max="3" width="56.3982300884956" customWidth="1"/>
+    <col min="2" max="2" width="50.7333333333333" customWidth="1"/>
+    <col min="3" max="3" width="56.4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -1211,7 +1211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15.4" spans="1:3">
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="15.4" spans="1:3">
+    <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="15.4" spans="1:3">
+    <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="15.4" spans="1:3">
+    <row r="5" ht="15.75" spans="1:3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="15.4" spans="1:3">
+    <row r="6" ht="15.75" spans="1:3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="15.4" spans="1:3">
+    <row r="7" ht="15.75" spans="1:3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="15.4" spans="1:3">
+    <row r="8" ht="15.75" spans="1:3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="15.4" spans="1:3">
+    <row r="9" ht="15.75" spans="1:3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="15.4" spans="1:3">
+    <row r="10" ht="15.75" spans="1:3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="15.4" spans="1:3">
+    <row r="11" ht="15.75" spans="1:3">
       <c r="A11" s="3">
         <v>10</v>
       </c>

--- a/Log2Excel/Config.xlsx
+++ b/Log2Excel/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13095"/>
+    <workbookView windowWidth="21600" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="EnvironmentVariables" sheetId="1" r:id="rId1"/>
@@ -26,31 +26,31 @@
     <t>INPUT_PATH</t>
   </si>
   <si>
-    <t>G:\Projects\Person\Log2Excel\Log2Excel\bin\Debug\net6.0-windows\input</t>
+    <t>D:\Works\Freelancers\Log2Excel_Ver2\Log2Excel\Log2Excel\bin\Debug\net6.0-windows\input</t>
   </si>
   <si>
     <t>OUTPUT_PATH</t>
   </si>
   <si>
-    <t>G:\Projects\Person\Log2Excel\Log2Excel\bin\Debug\net6.0-windows\output</t>
+    <t>D:\Works\Freelancers\Log2Excel_Ver2\Log2Excel\Log2Excel\bin\Debug\net6.0-windows\output</t>
   </si>
   <si>
     <t>DZS_PREFIX</t>
   </si>
   <si>
-    <t>VE_24</t>
+    <t>M4K-06-;M4K-07-;M4K-08-;M4K-09-;M4K-11-</t>
   </si>
   <si>
     <t>CISCO_PREFIX</t>
   </si>
   <si>
-    <t>RP/0/RP0/CPU0</t>
+    <t>RP/0/RP0/CPU0;RP/0/RP0/CPU0;RP/0/RP0/CPU0;RP/0/RP0/CPU0;RP/0/RP0/CPU0</t>
   </si>
   <si>
     <t>ROUTERS</t>
   </si>
   <si>
-    <t>R1;R2;R3;R4;R5;R6</t>
+    <t>R1;R2;R3;R4;R6</t>
   </si>
   <si>
     <t>COMMENT_NAME</t>
@@ -127,8 +127,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -157,22 +157,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,37 +196,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,22 +234,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -255,46 +241,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,19 +309,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,19 +399,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,139 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,16 +519,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,30 +566,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -590,6 +581,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -600,33 +615,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,130 +636,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,14 +1112,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="35.6" customWidth="1"/>
-    <col min="2" max="2" width="60.8666666666667" customWidth="1"/>
-    <col min="3" max="3" width="42.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="35.6017699115044" customWidth="1"/>
+    <col min="2" max="2" width="60.8672566371681" customWidth="1"/>
+    <col min="3" max="3" width="42.3362831858407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1194,10 +1194,10 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="50.7333333333333" customWidth="1"/>
-    <col min="3" max="3" width="56.4" customWidth="1"/>
+    <col min="2" max="2" width="50.7345132743363" customWidth="1"/>
+    <col min="3" max="3" width="56.3982300884956" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -1211,7 +1211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:3">
+    <row r="2" ht="15.4" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:3">
+    <row r="3" ht="15.4" spans="1:3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:3">
+    <row r="4" ht="15.4" spans="1:3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:3">
+    <row r="5" ht="15.4" spans="1:3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:3">
+    <row r="6" ht="15.4" spans="1:3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:3">
+    <row r="7" ht="15.4" spans="1:3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:3">
+    <row r="8" ht="15.4" spans="1:3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:3">
+    <row r="9" ht="15.4" spans="1:3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:3">
+    <row r="10" ht="15.4" spans="1:3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:3">
+    <row r="11" ht="15.4" spans="1:3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
